--- a/doc/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
+++ b/doc/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
@@ -10,8 +10,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjL8PPnbCr5O/NziJyi68RDtPezNA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="8Xdqw6bUrp/J7FHxw+zrzvapEtBEqzFTK5JiR/+16Vk="/>
     </ext>
   </extLst>
 </workbook>
@@ -156,10 +156,10 @@
   <si>
     <t xml:space="preserve">検索ボタンを押下時に、
 以下のバリデーションチェックでエラーの場合、表示
-① 対象年月、対象週が必須で入力されていること。	
-②対象年月がYYYY/MM形式であること。	
-③対象週が数値かつ、1～5の数値のいずれかであること。	
-④タレントが30桁以内であること。	
+① 対象年月、対象週が必須で入力されていること。        
+②対象年月がYYYY/MM形式であること。        
+③対象週が数値かつ、1～5の数値のいずれかであること。        
+④タレントが30桁以内であること。        
 </t>
   </si>
   <si>
@@ -446,7 +446,7 @@
     <t>※上記のチェック結果を画面上部に表示する。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-2. API「週間タレント別情報」を呼び出す（API情報は別シート_API情報を参照）</t>
+    <t xml:space="preserve">　　2-2-2. API「週間タレント別情報BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-3.【2-2-2】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
@@ -685,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -749,6 +749,9 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +772,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
@@ -835,6 +841,9 @@
     </xf>
     <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,7 +1216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
+    <row r="6" ht="29.25" customHeight="1">
       <c r="B6" s="14">
         <v>2.0</v>
       </c>
@@ -2426,8 +2435,8 @@
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11">
-        <v>45043.0</v>
+      <c r="L2" s="21">
+        <v>45129.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -3320,7 +3329,7 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="2"/>
@@ -3350,8 +3359,8 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="22"/>
-      <c r="H35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3373,8 +3382,8 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="22"/>
-      <c r="H36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -3482,10 +3491,10 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="19"/>
@@ -3517,7 +3526,7 @@
       <c r="B41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="19"/>
@@ -3549,7 +3558,7 @@
       <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="19"/>
@@ -3581,7 +3590,7 @@
       <c r="B43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="19"/>
@@ -3610,10 +3619,10 @@
     </row>
     <row r="44" ht="38.25" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="19"/>
@@ -3734,30 +3743,30 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="25" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6"/>
@@ -3778,22 +3787,22 @@
     </row>
     <row r="49" ht="90.0" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="29" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -3872,30 +3881,30 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="25" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6"/>
@@ -3916,7 +3925,7 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="12" t="s">
@@ -3927,11 +3936,11 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -3950,7 +3959,7 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -3994,7 +4003,7 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -4005,11 +4014,11 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4028,7 +4037,7 @@
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -4072,7 +4081,7 @@
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="12" t="s">
@@ -4083,11 +4092,11 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4106,7 +4115,7 @@
     </row>
     <row r="58" ht="43.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -4117,19 +4126,19 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="27" t="s">
+      <c r="I58" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J58" s="27" t="s">
+      <c r="J58" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K58" s="27" t="s">
+      <c r="K58" s="28" t="s">
         <v>65</v>
       </c>
       <c r="L58" s="6"/>
@@ -4206,30 +4215,30 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="I61" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="24" t="s">
+      <c r="K61" s="25" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="6"/>
@@ -4256,16 +4265,16 @@
       <c r="C62" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="28" t="s">
         <v>68</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4290,24 +4299,24 @@
       <c r="C63" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H63" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="35" t="s">
+      <c r="I63" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J63" s="35" t="s">
+      <c r="J63" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K63" s="34" t="s">
+      <c r="K63" s="36" t="s">
         <v>75</v>
       </c>
       <c r="L63" s="6"/>
@@ -4334,16 +4343,16 @@
       <c r="C64" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="38" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4368,24 +4377,24 @@
       <c r="C65" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="40" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I65" s="35" t="s">
+      <c r="I65" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J65" s="35" t="s">
+      <c r="J65" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K65" s="34" t="s">
+      <c r="K65" s="36" t="s">
         <v>80</v>
       </c>
       <c r="L65" s="6"/>
@@ -4466,30 +4475,30 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="H68" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="24" t="s">
+      <c r="K68" s="25" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6"/>
@@ -4510,7 +4519,7 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -4521,11 +4530,11 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4544,28 +4553,28 @@
     </row>
     <row r="70" ht="49.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41" t="s">
+      <c r="B70" s="42"/>
+      <c r="C70" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="44" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J70" s="32" t="s">
+      <c r="J70" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K70" s="43" t="s">
+      <c r="K70" s="45" t="s">
         <v>87</v>
       </c>
       <c r="L70" s="6"/>
@@ -4586,24 +4595,24 @@
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="32" t="s">
+      <c r="G71" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="32" t="s">
+      <c r="H71" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I71" s="32" t="s">
+      <c r="I71" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J71" s="32" t="s">
+      <c r="J71" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="44"/>
+      <c r="K71" s="46"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -4622,7 +4631,7 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C72" s="12" t="s">
@@ -4633,11 +4642,11 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4656,28 +4665,28 @@
     </row>
     <row r="73" ht="57.0" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="31"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="H73" s="32" t="s">
+      <c r="H73" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I73" s="32" t="s">
+      <c r="I73" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J73" s="32" t="s">
+      <c r="J73" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K73" s="32" t="s">
+      <c r="K73" s="34" t="s">
         <v>97</v>
       </c>
       <c r="L73" s="6"/>
@@ -4698,7 +4707,7 @@
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="12" t="s">
@@ -4709,11 +4718,11 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4732,11 +4741,11 @@
     </row>
     <row r="75" ht="92.25" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="41" t="s">
+      <c r="B75" s="42"/>
+      <c r="C75" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="44" t="s">
         <v>99</v>
       </c>
       <c r="E75" s="6"/>
@@ -4744,16 +4753,16 @@
       <c r="G75" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H75" s="27" t="s">
+      <c r="H75" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I75" s="27" t="s">
+      <c r="I75" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J75" s="27" t="s">
+      <c r="J75" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K75" s="42" t="s">
+      <c r="K75" s="44" t="s">
         <v>104</v>
       </c>
       <c r="L75" s="6"/>
@@ -4774,24 +4783,24 @@
     </row>
     <row r="76" ht="45.0" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="27" t="s">
+      <c r="H76" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J76" s="27" t="s">
+      <c r="J76" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="K76" s="44"/>
+      <c r="K76" s="46"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4810,7 +4819,7 @@
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="31" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -4821,11 +4830,11 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -4843,12 +4852,12 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78" ht="38.25" customHeight="1">
-      <c r="A78" s="45"/>
-      <c r="B78" s="46"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="28" t="s">
         <v>109</v>
       </c>
       <c r="E78" s="6"/>
@@ -4856,13 +4865,13 @@
       <c r="G78" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H78" s="27" t="s">
+      <c r="H78" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I78" s="27" t="s">
+      <c r="I78" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J78" s="27" t="s">
+      <c r="J78" s="28" t="s">
         <v>112</v>
       </c>
       <c r="K78" s="12"/>
@@ -4883,23 +4892,23 @@
       <c r="Z78" s="6"/>
     </row>
     <row r="79" ht="59.25" customHeight="1">
-      <c r="A79" s="45"/>
-      <c r="B79" s="46" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="48" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="28" t="s">
         <v>114</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -30755,8 +30764,8 @@
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11">
-        <v>45043.0</v>
+      <c r="L2" s="21">
+        <v>45129.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -30777,18 +30786,18 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="19"/>
@@ -30800,7 +30809,7 @@
       <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19"/>
@@ -30812,7 +30821,7 @@
       <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="19"/>
@@ -30824,7 +30833,7 @@
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="19"/>
@@ -30836,117 +30845,117 @@
       <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" ht="18.75" customHeight="1"/>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1"/>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="49" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="49" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="49" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1"/>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="49" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="49" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1"/>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1"/>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="49" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1"/>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1"/>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1"/>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1"/>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="49" t="s">
         <v>135</v>
       </c>
     </row>
